--- a/documentos/POAINICIAL_MATRICES/MATRIZ1SUMINISTROS.xlsx
+++ b/documentos/POAINICIAL_MATRICES/MATRIZ1SUMINISTROS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\poa2\documentos\POAINICIAL_MATRICES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B68F30BD-B839-4C03-BE20-0E62A06A7F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7884115A-7D35-41A4-A900-B22D6671BD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="5535" windowWidth="20160" windowHeight="10695" xr2:uid="{4817C152-1860-4779-A45E-20A93680AD60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4817C152-1860-4779-A45E-20A93680AD60}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">TIPO </t>
   </si>
@@ -48,9 +37,6 @@
   </si>
   <si>
     <t>Suministro agua</t>
-  </si>
-  <si>
-    <t>ITEM PRESUPUESTARIO (CODIGO)</t>
   </si>
 </sst>
 </file>
@@ -402,35 +388,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3A2B1D-5DF7-4DBD-BEE9-6F03B4EB1391}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="66.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
